--- a/KinderArtikelBoerse/Assets/template.xlsx
+++ b/KinderArtikelBoerse/Assets/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dg8\Documents\Visual Studio 2017\Projects\KinderArtikelBoerse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dg8\Source\Repos\ChildMarket\KinderArtikelBoerse\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Nummer</t>
   </si>
@@ -48,22 +48,19 @@
     <t>Artikelliste</t>
   </si>
   <si>
-    <t>Total Anzahl Artikel</t>
-  </si>
-  <si>
     <t>nicht verkauft</t>
   </si>
   <si>
     <t>Verkaufsübersicht</t>
   </si>
   <si>
-    <t>Verkauft Total</t>
-  </si>
-  <si>
     <t>Name Vorname</t>
   </si>
   <si>
     <t>Betrag erhalten</t>
+  </si>
+  <si>
+    <t>Anzahl Artikel Total</t>
   </si>
 </sst>
 </file>
@@ -201,22 +198,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="justify"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -229,42 +210,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -593,10 +584,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:G82"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -610,114 +601,128 @@
     <col min="8" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D4" s="6"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="27">
+        <f>COUNTIF(B18:B487, "*")</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
+        <f>SUM(F18:F500)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <f>COUNTIF(B18:B500, "*")</f>
+      <c r="E6" s="14">
+        <f>E5-E7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="40">
+        <f>F5-F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="D7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="11">
-        <f>COUNTIF(A18:A500, "*")</f>
+      <c r="E7" s="38">
+        <f>COUNTIF(A18:A487, "*")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="12">
-        <f>F5-F6</f>
+      <c r="F7" s="39">
+        <f>SUMIF(A18:A487,"&lt;&gt;",F18:F500)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="13">
-        <f>SUMIF(A18:A500,"&lt;&gt;",F18:F500)</f>
+      <c r="B9"/>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="36">
+        <f>E9*F7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="13">
-        <f>E10*F9</f>
+      <c r="B10"/>
+      <c r="D10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="35">
+        <f>F7-F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16">
-        <f>F9-F10</f>
-        <v>0</v>
-      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="D13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="8"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -727,605 +732,397 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="18"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="18"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="18"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="18"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="18"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-    </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-    </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-    </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-    </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-    </row>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-    </row>
-    <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-    </row>
-    <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
   </mergeCells>
-  <conditionalFormatting sqref="A18:A21">
+  <conditionalFormatting sqref="A18:A487">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -1336,7 +1133,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial,Standard"&amp;18Kinderartikelbörse 13.09.2017&amp;R&amp;"Arial,Standard"&amp;18www.familientreff-kaltbrunn.ch</oddHeader>
     <oddFooter xml:space="preserve">&amp;R&amp;"Arial,Standard"&amp;P / &amp;N&amp;"-,Standard"
